--- a/business-intelligence-project.xlsx
+++ b/business-intelligence-project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoqian/Documents/GitHub/Business Intelligence Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEB91FF-F0CB-0B4B-A6BB-DCB1E9FBA649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBCF557-CF21-3F41-A9BB-EFD39C669858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19420" yWindow="4660" windowWidth="31780" windowHeight="22740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4540" windowWidth="31780" windowHeight="22740" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1" sheetId="1" r:id="rId1"/>
@@ -936,15 +936,81 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1016,72 +1082,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1429,8 +1429,8 @@
   </sheetPr>
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView zoomScale="172" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1995,7 +1995,7 @@
   </sheetPr>
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2508,7 +2508,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="F15" sqref="F15:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2522,25 +2522,25 @@
       <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="88"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -2561,10 +2561,10 @@
       <c r="D4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="83"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -2681,13 +2681,13 @@
         <v>1542.5310874505024</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="76"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
@@ -2700,11 +2700,11 @@
         <v>6553.1264309500057</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
@@ -2717,11 +2717,11 @@
         <v>5738.8748242455395</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
@@ -2734,13 +2734,13 @@
         <v>8008.5340745351859</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
@@ -2753,11 +2753,11 @@
         <v>4293.6216301557652</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="71"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
@@ -2770,11 +2770,11 @@
         <v>4000</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="71"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
@@ -2787,11 +2787,11 @@
         <v>8352.4848826500129</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
@@ -2804,11 +2804,11 @@
         <v>2805.559036037208</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
@@ -2821,11 +2821,11 @@
         <v>863.7183691921382</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="71"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
@@ -2838,11 +2838,11 @@
         <v>336.14580184384897</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="71"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
@@ -2855,11 +2855,11 @@
         <v>2978.7665481256818</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="71"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
@@ -2872,11 +2872,11 @@
         <v>3220.2032472188025</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="71"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
@@ -2889,11 +2889,11 @@
         <v>5790.4209120015603</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="71"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
@@ -2906,11 +2906,11 @@
         <v>1264.4666161797461</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="74"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="64"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
@@ -3409,7 +3409,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E7" sqref="E7:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3431,12 +3431,12 @@
         <v>52</v>
       </c>
       <c r="D2" s="27"/>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="22">
@@ -3448,10 +3448,10 @@
       <c r="C3" s="23">
         <v>36.4</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
     </row>
     <row r="4" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -3502,12 +3502,12 @@
       <c r="C7" s="23">
         <v>50.4</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
@@ -3519,10 +3519,10 @@
       <c r="C8" s="23">
         <v>48.449999999999996</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="76"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
@@ -3534,10 +3534,10 @@
       <c r="C9" s="23">
         <v>48.449999999999996</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="79"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
@@ -3549,12 +3549,12 @@
       <c r="C10" s="23">
         <v>50.15</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="82"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
@@ -3566,10 +3566,10 @@
       <c r="C11" s="23">
         <v>54</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
@@ -3581,10 +3581,10 @@
       <c r="C12" s="23">
         <v>54</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
@@ -3596,10 +3596,10 @@
       <c r="C13" s="23">
         <v>54</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="63"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="85"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
@@ -3611,10 +3611,10 @@
       <c r="C14" s="23">
         <v>55.800000000000004</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
@@ -3626,10 +3626,10 @@
       <c r="C15" s="23">
         <v>43.4</v>
       </c>
-      <c r="E15" s="61"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="85"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
@@ -3641,10 +3641,10 @@
       <c r="C16" s="23">
         <v>60.300000000000004</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="85"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="22">
@@ -3656,10 +3656,10 @@
       <c r="C17" s="23">
         <v>60.300000000000004</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="63"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="85"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
@@ -3671,10 +3671,10 @@
       <c r="C18" s="23">
         <v>56.949999999999996</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="63"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="85"/>
     </row>
     <row r="19" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
@@ -3686,10 +3686,10 @@
       <c r="C19" s="23">
         <v>48.3</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="66"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="88"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="22">
@@ -4077,7 +4077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10AD30A-5278-E44A-A619-D8CA7A797905}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
